--- a/biology/Médecine/Ligament_sacro-tubéral/Ligament_sacro-tubéral.xlsx
+++ b/biology/Médecine/Ligament_sacro-tubéral/Ligament_sacro-tubéral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_sacro-tub%C3%A9ral</t>
+          <t>Ligament_sacro-tubéral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament sacro-tubéral (ou grand ligament sacro-sciatique) est un ligament de la région pelvienne tendue entre le sacrum et l'os coxal. Il contribue aux articulations fibreuse de la ceinture pelvienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_sacro-tub%C3%A9ral</t>
+          <t>Ligament_sacro-tubéral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament sacro-tubéral est une large bande fibreuse.
 Il s'insère en dedans sur l'épine iliaque postérieure et inférieure, sur l'épine iliaque postérieure et supérieure, sur les parties adjacentes de la fosse iliaque interne adjacentes aux épines iliaques, sur le bord latéral du sacrum et des premières vertèbres coccygiennes.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_sacro-tub%C3%A9ral</t>
+          <t>Ligament_sacro-tubéral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament sacro-tubéral contribue à la consolidation de l'articulation sacro-iliaque.
 Ce ligament ferme en arrière et en bas les petite et grandes incisures ischiatiques qu'il transforme avec la contribution du ligament sacro-épineux en petit foramen ischiatique et grand foramen ischiatique.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_sacro-tub%C3%A9ral</t>
+          <t>Ligament_sacro-tubéral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf pudendal peut être piégé entre le ligament sacro-tubéral et le ligament sacro-épineux provoquant une douleur périnéale. La section du ligament sacro-tubéral est une solution pour soulager la douleur.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ligament_sacro-tub%C3%A9ral</t>
+          <t>Ligament_sacro-tubéral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains auteurs le considèrent comme un ligament de l'articulation sacro-iliaque.
 La nomenclature anatomique TA2 le considère comme une articulation fibreuse de la ceinture pelvienne (syndesmose).
